--- a/Kalyaan Book.xlsx
+++ b/Kalyaan Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaukumar3\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C5EE5E-8FC1-43EA-8A8E-4F438D2B5F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B249456-4D14-4E10-9C7F-459C78C74050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="7">
   <si>
     <t>Radhe</t>
   </si>
@@ -77,7 +77,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +96,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -109,15 +115,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -493,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:R18"/>
+  <dimension ref="B2:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -505,464 +520,937 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="9" spans="2:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="5" t="s">
+      <c r="G9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="5" t="s">
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R11" s="5" t="s">
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="5" t="s">
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R13" s="5" t="s">
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="5" t="s">
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="5" t="s">
+      <c r="M14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
